--- a/참고자료/학생정보(2020-07-21).xlsx
+++ b/참고자료/학생정보(2020-07-21).xlsx
@@ -1825,23 +1825,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1850,23 +1850,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1875,23 +1875,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1900,23 +1900,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1925,23 +1925,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1950,23 +1950,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
@@ -1987,11 +1987,11 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2000,11 +2000,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
@@ -2012,11 +2012,11 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2025,23 +2025,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2050,23 +2050,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2075,23 +2075,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
         <v>95</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>96</v>
-      </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2100,23 +2100,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2125,23 +2125,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2150,23 +2150,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2175,23 +2175,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
         <v>81</v>
       </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2200,23 +2200,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2225,23 +2225,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2250,23 +2250,23 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2275,23 +2275,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2300,23 +2300,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
         <v>91</v>
       </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2325,23 +2325,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2350,23 +2350,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2375,23 +2375,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2404,19 +2404,19 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2425,23 +2425,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2450,23 +2450,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2475,23 +2475,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2500,23 +2500,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2525,23 +2525,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2550,23 +2550,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2575,23 +2575,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2600,23 +2600,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2625,23 +2625,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2650,23 +2650,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2675,23 +2675,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2700,23 +2700,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2725,23 +2725,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2750,23 +2750,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2775,23 +2775,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2800,23 +2800,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2825,23 +2825,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
         <v>72</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2850,23 +2850,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2875,23 +2875,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2900,23 +2900,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="F45">
-        <f t="shared" ca="1" si="3"/>
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2925,23 +2925,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2950,23 +2950,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2975,23 +2975,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3000,23 +3000,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3025,23 +3025,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3050,23 +3050,23 @@
       </c>
       <c r="B51">
         <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3075,23 +3075,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,23 +3100,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3125,23 +3125,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
         <v>51</v>
       </c>
-      <c r="C54">
+      <c r="F54">
         <f t="shared" ca="1" si="4"/>
         <v>75</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="F54">
-        <f t="shared" ca="1" si="4"/>
-        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3150,23 +3150,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3200,23 +3200,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3225,23 +3225,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="4"/>
         <v>78</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="F58">
-        <f t="shared" ca="1" si="4"/>
-        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3250,23 +3250,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3275,23 +3275,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3300,19 +3300,19 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
@@ -3325,23 +3325,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3350,23 +3350,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3375,23 +3375,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3400,23 +3400,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3425,11 +3425,11 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
@@ -3437,11 +3437,11 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3450,23 +3450,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3475,23 +3475,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3500,23 +3500,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="5"/>
         <v>93</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ca="1" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="F69">
-        <f t="shared" ca="1" si="5"/>
-        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3525,23 +3525,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3550,23 +3550,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3575,23 +3575,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="5"/>
         <v>55</v>
       </c>
-      <c r="C72">
-        <f t="shared" ca="1" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ca="1" si="5"/>
-        <v>96</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="5"/>
-        <v>98</v>
-      </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3600,23 +3600,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3625,23 +3625,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3650,23 +3650,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3675,23 +3675,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3700,23 +3700,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3729,19 +3729,19 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3750,23 +3750,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3775,23 +3775,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="5"/>
         <v>70</v>
       </c>
-      <c r="C80">
+      <c r="F80">
         <f t="shared" ca="1" si="5"/>
         <v>68</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ca="1" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="E80">
-        <f t="shared" ca="1" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="F80">
-        <f t="shared" ca="1" si="5"/>
-        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3800,15 +3800,15 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3825,23 +3825,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3850,23 +3850,23 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3875,23 +3875,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3900,15 +3900,15 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="6"/>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3925,23 +3925,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3950,23 +3950,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3975,23 +3975,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -4000,23 +4000,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4025,23 +4025,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -4050,19 +4050,19 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
@@ -4075,23 +4075,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="6"/>
         <v>88</v>
       </c>
-      <c r="C92">
-        <f t="shared" ca="1" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="D92">
-        <f t="shared" ca="1" si="6"/>
-        <v>52</v>
-      </c>
-      <c r="E92">
-        <f t="shared" ca="1" si="6"/>
-        <v>75</v>
-      </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -4100,23 +4100,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4125,23 +4125,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -4150,11 +4150,11 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
@@ -4162,11 +4162,11 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -4175,23 +4175,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="6"/>
         <v>74</v>
       </c>
-      <c r="D96">
-        <f t="shared" ca="1" si="6"/>
-        <v>66</v>
-      </c>
       <c r="E96">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -4200,23 +4200,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="6"/>
         <v>60</v>
-      </c>
-      <c r="E97">
-        <f t="shared" ca="1" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="F97">
-        <f t="shared" ca="1" si="6"/>
-        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4225,23 +4225,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4250,23 +4250,23 @@
       </c>
       <c r="B99">
         <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4275,23 +4275,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4300,23 +4300,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4329,8 +4329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4375,14 +4375,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-5935-5407</v>
+        <v>010-8172-9668</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>398</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <f>VLOOKUP(G2,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="str">
         <f>VLOOKUP(G4,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="str">
         <f>VLOOKUP(G6,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="str">
         <f>VLOOKUP(G7,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="str">
         <f>VLOOKUP(G8,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="str">
         <f>VLOOKUP(G9,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="str">
         <f>VLOOKUP(G11,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" t="str">
         <f>VLOOKUP(G12,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="str">
         <f>VLOOKUP(G13,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="str">
         <f>VLOOKUP(G14,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="str">
         <f>VLOOKUP(G15,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="str">
         <f>VLOOKUP(G16,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="str">
         <f>VLOOKUP(G17,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="str">
         <f>VLOOKUP(G18,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="str">
         <f>VLOOKUP(G20,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="str">
         <f>VLOOKUP(G21,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="str">
         <f>VLOOKUP(G22,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" t="str">
         <f>VLOOKUP(G23,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="str">
         <f>VLOOKUP(G24,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="str">
         <f>VLOOKUP(G26,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="str">
         <f>VLOOKUP(G27,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="str">
         <f>VLOOKUP(G29,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" t="str">
         <f>VLOOKUP(G30,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="str">
         <f>VLOOKUP(G32,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" t="str">
         <f>VLOOKUP(G33,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34" t="str">
         <f>VLOOKUP(G34,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" t="str">
         <f>VLOOKUP(G35,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="str">
         <f>VLOOKUP(G36,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" t="str">
         <f>VLOOKUP(G38,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" t="str">
         <f>VLOOKUP(G39,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="str">
         <f>VLOOKUP(G40,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="str">
         <f>VLOOKUP(G41,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="str">
         <f>VLOOKUP(G42,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="str">
         <f>VLOOKUP(G44,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" t="str">
         <f>VLOOKUP(G45,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" t="str">
         <f>VLOOKUP(G46,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="str">
         <f>VLOOKUP(G47,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="str">
         <f>VLOOKUP(G48,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="str">
         <f>VLOOKUP(G49,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" t="str">
         <f>VLOOKUP(G50,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" t="str">
         <f>VLOOKUP(G51,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="str">
         <f>VLOOKUP(G52,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" t="str">
         <f>VLOOKUP(G54,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" t="str">
         <f>VLOOKUP(G56,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" t="str">
         <f>VLOOKUP(G57,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="str">
         <f>VLOOKUP(G59,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="str">
         <f>VLOOKUP(G60,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" t="str">
         <f>VLOOKUP(G62,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="str">
         <f>VLOOKUP(G63,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" t="str">
         <f>VLOOKUP(G64,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F65" t="str">
         <f>VLOOKUP(G65,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66" t="str">
         <f>VLOOKUP(G66,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" t="str">
         <f>VLOOKUP(G67,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="str">
         <f>VLOOKUP(G68,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69" t="str">
         <f>VLOOKUP(G69,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="str">
         <f>VLOOKUP(G70,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F71" t="str">
         <f>VLOOKUP(G71,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" t="str">
         <f>VLOOKUP(G72,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="str">
         <f>VLOOKUP(G73,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="str">
         <f>VLOOKUP(G74,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="str">
         <f>VLOOKUP(G75,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" t="str">
         <f>VLOOKUP(G76,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" t="str">
         <f>VLOOKUP(G78,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F80" t="str">
         <f>VLOOKUP(G80,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="str">
         <f>VLOOKUP(G81,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" t="str">
         <f>VLOOKUP(G82,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" t="str">
         <f>VLOOKUP(G83,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" t="str">
         <f>VLOOKUP(G84,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F85" t="str">
         <f>VLOOKUP(G85,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F87" t="str">
         <f>VLOOKUP(G87,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" t="str">
         <f>VLOOKUP(G88,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F89" t="str">
         <f>VLOOKUP(G89,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="str">
         <f>VLOOKUP(G90,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="str">
         <f>VLOOKUP(G91,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94" t="str">
         <f>VLOOKUP(G94,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="str">
         <f>VLOOKUP(G97,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F98" t="str">
         <f>VLOOKUP(G98,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" t="str">
         <f>VLOOKUP(G101,학과정보!$A$2:$B$6,2,FALSE)</f>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-355-0150</v>
+        <v>062-630-6058</v>
       </c>
       <c r="F2" t="s">
         <v>444</v>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-852-7910</v>
+        <v>062-585-6004</v>
       </c>
       <c r="F3" t="s">
         <v>440</v>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-723-6746</v>
+        <v>062-711-7833</v>
       </c>
       <c r="F4" t="s">
         <v>441</v>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-547-8437</v>
+        <v>062-619-7325</v>
       </c>
       <c r="F5" t="s">
         <v>442</v>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-696-1660</v>
+        <v>062-556-6074</v>
       </c>
       <c r="F6" t="s">
         <v>443</v>
